--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P33_trail13 Features.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,29 +1000,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1043,115 +1041,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1168,72 +1156,66 @@
         <v>3.976227743979452e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.823491507019389</v>
+        <v>2.737615822922275e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10.41569592232691</v>
+        <v>3.757846383776844e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.737615822922275e-06</v>
+        <v>-0.1145969603609851</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.757846383776844e-06</v>
+        <v>0.3123182121882788</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1145969603609851</v>
+        <v>0.1103809820925337</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3123182121882788</v>
+        <v>1.786916033131203</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1103809820925337</v>
+        <v>1.678878952967842</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.734986377487903</v>
+        <v>4.276416364365836</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.678878952967842</v>
+        <v>1.535131950131336e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.276416364365836</v>
+        <v>133589740.7872123</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.535131950131336e-15</v>
+        <v>8.78570333021436e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>133589740.7872123</v>
+        <v>27.39630073583795</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.78570333021436e-07</v>
+        <v>0.0001340759944567144</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>27.39630073583795</v>
+        <v>8.576449573092887</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001340759944567144</v>
+        <v>1.27596855637187</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.576449573092887</v>
+        <v>0.009862025104788086</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.27596855637187</v>
+        <v>2.816133772491066</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009862025104788086</v>
+        <v>0.9566924539625843</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.816133772491066</v>
+        <v>1.665708538412251</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9566924539625843</v>
+        <v>35</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.665708538412251</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.251656322238741</v>
       </c>
     </row>
@@ -1248,72 +1230,66 @@
         <v>3.079888994752634e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.029702992999165</v>
+        <v>2.008464004748021e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.419493590492088</v>
+        <v>3.718857305825442e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.008464004748021e-06</v>
+        <v>-0.1076487215559293</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.718857305825442e-06</v>
+        <v>0.2799912072777377</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1076487215559293</v>
+        <v>0.08972819882063478</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2799912072777377</v>
+        <v>1.805775574392788</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08972819882063478</v>
+        <v>1.914022611747113</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.755558033854748</v>
+        <v>4.294340307180678</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.914022611747113</v>
+        <v>1.52234386522891e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.294340307180678</v>
+        <v>135664395.1825385</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.52234386522891e-15</v>
+        <v>8.661352065815811e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>135664395.1825385</v>
+        <v>28.01847717944594</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.661352065815811e-07</v>
+        <v>0.0001331390753841375</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>28.01847717944594</v>
+        <v>8.218061960230692</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001331390753841375</v>
+        <v>1.317848292318308</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.218061960230692</v>
+        <v>0.008991752807406486</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.317848292318308</v>
+        <v>2.903021564221531</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008991752807406486</v>
+        <v>0.9576407943833115</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.903021564221531</v>
+        <v>1.635065172646438</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9576407943833115</v>
+        <v>32</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.635065172646438</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2447524559751788</v>
       </c>
     </row>
@@ -1328,72 +1304,66 @@
         <v>2.531671219266793e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.198961853581602</v>
+        <v>1.494302449460872e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.670135796346267</v>
+        <v>3.690439158379944e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.494302449460872e-06</v>
+        <v>-0.09584161951339845</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.690439158379944e-06</v>
+        <v>0.23319234556924</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09584161951339845</v>
+        <v>0.06338265380949427</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.23319234556924</v>
+        <v>1.72816549176082</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06338265380949427</v>
+        <v>1.685163068639592</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.666606304007066</v>
+        <v>5.149305518594993</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.685163068639592</v>
+        <v>1.946740204667322e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.149305518594993</v>
+        <v>108835017.7809272</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.946740204667322e-15</v>
+        <v>1.049581187976334e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>108835017.7809272</v>
+        <v>23.05925666110677</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.049581187976334e-06</v>
+        <v>0.0001419117424865108</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>23.05925666110677</v>
+        <v>8.349282534521048</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001419117424865108</v>
+        <v>1.373051275092926</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.349282534521048</v>
+        <v>0.0098927411984017</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.373051275092926</v>
+        <v>2.892598846882199</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0098927411984017</v>
+        <v>0.9499208008902014</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.892598846882199</v>
+        <v>1.696143530111652</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9499208008902014</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.696143530111652</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2333939737711792</v>
       </c>
     </row>
@@ -1408,72 +1378,66 @@
         <v>2.215812620488766e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5784756115489841</v>
+        <v>1.144857738313511e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.2652238072741118</v>
+        <v>3.669404522001414e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.144857738313511e-06</v>
+        <v>-0.08247629852358768</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.669404522001414e-06</v>
+        <v>0.1845321682540006</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08247629852358768</v>
+        <v>0.04074914620432411</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1845321682540006</v>
+        <v>1.70338751244137</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04074914620432411</v>
+        <v>1.590165482664502</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.631913484866617</v>
+        <v>4.148177648334222</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.590165482664502</v>
+        <v>3.397965952161343e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.148177648334222</v>
+        <v>59121302.47560839</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.397965952161343e-15</v>
+        <v>1.910372134065772e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>59121302.47560839</v>
+        <v>11.87700691661163</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.910372134065772e-06</v>
+        <v>0.0001571729710388814</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>11.87700691661163</v>
+        <v>7.852189143589674</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001571729710388814</v>
+        <v>1.514407021514051</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.852189143589674</v>
+        <v>0.009690794126043015</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.514407021514051</v>
+        <v>2.915363217281631</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009690794126043015</v>
+        <v>0.9498822693223378</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.915363217281631</v>
+        <v>1.807586173973963</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9498822693223378</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.807586173973963</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2055542611489808</v>
       </c>
     </row>
@@ -1850,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.352763259580499</v>
+        <v>1.36490196224904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.627893008364934</v>
@@ -1939,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.345490412191017</v>
+        <v>1.357021596957845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.643705013515473</v>
@@ -2028,7 +1992,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.343886161700558</v>
+        <v>1.358992681088567</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.645870718683402</v>
@@ -2117,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.345521461736278</v>
+        <v>1.358702373306609</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.620350888935592</v>
@@ -2206,7 +2170,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.362349509028252</v>
+        <v>1.373590726776474</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.628164126240736</v>
@@ -2295,7 +2259,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.35667698246073</v>
+        <v>1.369763185920212</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.653062663899111</v>
@@ -2384,7 +2348,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.35625352567713</v>
+        <v>1.369465083465434</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.652566822768979</v>
@@ -2473,7 +2437,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.347437992666978</v>
+        <v>1.359166928705067</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.663499701260653</v>
@@ -2562,7 +2526,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.328591866277596</v>
+        <v>1.340089287439128</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.68164719102009</v>
@@ -2651,7 +2615,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.340966245839219</v>
+        <v>1.348214248434114</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.550599318898633</v>
@@ -2740,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.364003732262684</v>
+        <v>1.382763570626912</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.319991548085131</v>
@@ -2829,7 +2793,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.369755063037292</v>
+        <v>1.392260480375545</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.327443239415667</v>
@@ -2918,7 +2882,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.361606064206509</v>
+        <v>1.380450591755395</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.408815578249742</v>
@@ -3007,7 +2971,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.351270974871547</v>
+        <v>1.369201367678753</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.431215565493151</v>
@@ -3096,7 +3060,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.335129245521472</v>
+        <v>1.355489500092494</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.41112664756669</v>
@@ -3185,7 +3149,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.332907443350409</v>
+        <v>1.347311121252075</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.410342980650615</v>
@@ -3274,7 +3238,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.328786782105364</v>
+        <v>1.347110743264438</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.432351084447017</v>
@@ -3363,7 +3327,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.331200841758583</v>
+        <v>1.350297766616354</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.431285727209065</v>
@@ -3452,7 +3416,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.323834898022461</v>
+        <v>1.343995475662634</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.28620434578069</v>
@@ -3541,7 +3505,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.322611152757077</v>
+        <v>1.341851441482706</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.229390029663552</v>
@@ -3630,7 +3594,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.325972005100811</v>
+        <v>1.345591657656924</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.413537730781071</v>
@@ -3719,7 +3683,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.319760648607763</v>
+        <v>1.340950084872866</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.355166211535462</v>
@@ -3808,7 +3772,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.339022143765648</v>
+        <v>1.36564784349664</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.357312891714846</v>
@@ -3897,7 +3861,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.361868366890593</v>
+        <v>1.393135939254363</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.257231576595891</v>
@@ -3986,7 +3950,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.359882621806338</v>
+        <v>1.388371587305042</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.155757061103985</v>
@@ -4075,7 +4039,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.358258785734514</v>
+        <v>1.386644126308501</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.302592298100076</v>
@@ -4164,7 +4128,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.346144874763299</v>
+        <v>1.37336740594035</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.191874005859978</v>
@@ -4253,7 +4217,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.342641839321351</v>
+        <v>1.368934128393741</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.524998014620237</v>
@@ -4342,7 +4306,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.330678952213752</v>
+        <v>1.355337174982535</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.457411478294373</v>
@@ -4431,7 +4395,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.319346641550507</v>
+        <v>1.343499367948872</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.542027572783521</v>
@@ -4520,7 +4484,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.318844314793653</v>
+        <v>1.341504814527744</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.28979977799637</v>
@@ -4609,7 +4573,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.313996170920538</v>
+        <v>1.330881586888131</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.394570635166184</v>
@@ -4698,7 +4662,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.280653959054356</v>
+        <v>1.28400854167197</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.315173445695355</v>
@@ -4787,7 +4751,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.272382970444253</v>
+        <v>1.277787783556026</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.386526627921793</v>
@@ -4876,7 +4840,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.253530619086166</v>
+        <v>1.255362816748121</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.433251501330389</v>
@@ -4965,7 +4929,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.244870366953618</v>
+        <v>1.250366381119959</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.338351235699332</v>
@@ -5054,7 +5018,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.248430027098095</v>
+        <v>1.249260269808777</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.414060214590498</v>
@@ -5143,7 +5107,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.227883419990032</v>
+        <v>1.226586307017582</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.379100504490348</v>
@@ -5232,7 +5196,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.227213572935817</v>
+        <v>1.224104679077723</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.296625314330843</v>
@@ -5321,7 +5285,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.219253870383502</v>
+        <v>1.211580281013829</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.286397707755006</v>
@@ -5410,7 +5374,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.203369921148552</v>
+        <v>1.192663468182223</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.302654394898757</v>
@@ -5499,7 +5463,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.203755236235666</v>
+        <v>1.194982013782377</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.312322521636771</v>
@@ -5588,7 +5552,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.215275506458756</v>
+        <v>1.206889548539257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.254048871949133</v>
@@ -5677,7 +5641,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.221482016450995</v>
+        <v>1.211688782263269</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.125167226372821</v>
@@ -5766,7 +5730,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.229881215927594</v>
+        <v>1.2228674684387</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.362915952155992</v>
@@ -5855,7 +5819,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.246739406141668</v>
+        <v>1.238820802171264</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.302019441478266</v>
@@ -5944,7 +5908,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.24824057955667</v>
+        <v>1.243245950133166</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.312588987445818</v>
@@ -6033,7 +5997,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.27228115149468</v>
+        <v>1.272543297198164</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.176216116763885</v>
@@ -6122,7 +6086,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.278364940712355</v>
+        <v>1.274250875817278</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.117990675365715</v>
@@ -6408,7 +6372,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.153680683272102</v>
+        <v>1.16704294037157</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.085256903190281</v>
@@ -6497,7 +6461,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.138197017067968</v>
+        <v>1.149016297480272</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.136353106458767</v>
@@ -6586,7 +6550,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.129420944764524</v>
+        <v>1.14071731183163</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.135010405531176</v>
@@ -6675,7 +6639,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.123368706565029</v>
+        <v>1.134299042013776</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.207732323647442</v>
@@ -6764,7 +6728,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.122571593118548</v>
+        <v>1.133853145668181</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.201820964390053</v>
@@ -6853,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.122476133634484</v>
+        <v>1.134386321883338</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.201404337818433</v>
@@ -6942,7 +6906,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.120260212698906</v>
+        <v>1.131231401570526</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.20546725752863</v>
@@ -7031,7 +6995,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.118777294171725</v>
+        <v>1.129292209227205</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.217782000891134</v>
@@ -7120,7 +7084,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.112339219735239</v>
+        <v>1.120952104688292</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.216487627454554</v>
@@ -7209,7 +7173,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.113913485913836</v>
+        <v>1.121477656040675</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.272581682068147</v>
@@ -7298,7 +7262,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.108972517344754</v>
+        <v>1.120439638103979</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.108106299088755</v>
@@ -7387,7 +7351,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.112142929832915</v>
+        <v>1.124510376441765</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.112191218740847</v>
@@ -7476,7 +7440,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.1202535814061</v>
+        <v>1.127946818541949</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.940545959509845</v>
@@ -7565,7 +7529,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.119382301757905</v>
+        <v>1.130663708047314</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.961535406792441</v>
@@ -7654,7 +7618,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.126919366402435</v>
+        <v>1.138986149985477</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.013644970214112</v>
@@ -7743,7 +7707,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.147498976647091</v>
+        <v>1.157621258964472</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.143211054238444</v>
@@ -7832,7 +7796,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.173653223436159</v>
+        <v>1.186656169509686</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.197050487343721</v>
@@ -7921,7 +7885,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.184370544110681</v>
+        <v>1.199598405972585</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.113815219827894</v>
@@ -8010,7 +7974,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.183127203803728</v>
+        <v>1.19901752078068</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.197079633894116</v>
@@ -8099,7 +8063,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.176376906524065</v>
+        <v>1.192451051083611</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.231421053959117</v>
@@ -8188,7 +8152,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.177116753019113</v>
+        <v>1.193246034279362</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.219419939990184</v>
@@ -8277,7 +8241,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.189273960175304</v>
+        <v>1.20607686459292</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.149842023302273</v>
@@ -8366,7 +8330,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.193621820875395</v>
+        <v>1.213211553174783</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.230387351911721</v>
@@ -8455,7 +8419,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.210485252747373</v>
+        <v>1.231651770269085</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.088734530482886</v>
@@ -8544,7 +8508,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.227456513233119</v>
+        <v>1.247940761670233</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.007183291723972</v>
@@ -8633,7 +8597,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.23459556630864</v>
+        <v>1.255464306330108</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.122599170672621</v>
@@ -8722,7 +8686,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.232493068891576</v>
+        <v>1.251790572733116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.087610898912484</v>
@@ -8811,7 +8775,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.248103086001649</v>
+        <v>1.264483442836229</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.113717365318486</v>
@@ -8900,7 +8864,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.247041195671028</v>
+        <v>1.260400566531594</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.936465871178112</v>
@@ -8989,7 +8953,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.232376798847719</v>
+        <v>1.249259341639481</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.129569008764008</v>
@@ -9078,7 +9042,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.226210641096287</v>
+        <v>1.246233212208095</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.127503918165403</v>
@@ -9167,7 +9131,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.222215297019919</v>
+        <v>1.239441511978711</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.047024974220231</v>
@@ -9256,7 +9220,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.218235698388985</v>
+        <v>1.228304188103483</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.004506181697788</v>
@@ -9345,7 +9309,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.211010389004706</v>
+        <v>1.220116345022927</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.054829539160735</v>
@@ -9434,7 +9398,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.178220009799218</v>
+        <v>1.191401444416817</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.061182567747428</v>
@@ -9523,7 +9487,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.162511330248843</v>
+        <v>1.176103405512802</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.095821189782687</v>
@@ -9612,7 +9576,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.160317815962137</v>
+        <v>1.172296827007587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.117038015892547</v>
@@ -9701,7 +9665,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.151854241696757</v>
+        <v>1.166851342371642</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.149353658225408</v>
@@ -9790,7 +9754,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.14653755889129</v>
+        <v>1.159351257398614</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.196431755342571</v>
@@ -9879,7 +9843,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.146981880403939</v>
+        <v>1.161580825086566</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.17025099321867</v>
@@ -9968,7 +9932,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.15250366786694</v>
+        <v>1.168602923608222</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.186356018509508</v>
@@ -10057,7 +10021,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.153753066353153</v>
+        <v>1.170464893406119</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.13147827528409</v>
@@ -10146,7 +10110,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.164871352806116</v>
+        <v>1.183636547172705</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.187324567874448</v>
@@ -10235,7 +10199,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.166427063777881</v>
+        <v>1.185027484242509</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.112536866580549</v>
@@ -10324,7 +10288,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.191560416531062</v>
+        <v>1.210275858679241</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.15046338549804</v>
@@ -10413,7 +10377,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.184312589812452</v>
+        <v>1.203193758011542</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.176661757119099</v>
@@ -10502,7 +10466,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.184238739482779</v>
+        <v>1.204417179584034</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.044988090024226</v>
@@ -10591,7 +10555,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.200184803359492</v>
+        <v>1.221439114262026</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.98449105778585</v>
@@ -10680,7 +10644,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.212113333210003</v>
+        <v>1.233743272580635</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.932303945803363</v>
@@ -10966,7 +10930,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.568874212361093</v>
+        <v>1.580275955000677</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.276635433503642</v>
@@ -11055,7 +11019,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56819347567105</v>
+        <v>1.579301608314122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.291734954956624</v>
@@ -11144,7 +11108,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.580096124436067</v>
+        <v>1.594381782737576</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.255057564552724</v>
@@ -11233,7 +11197,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.571372365490041</v>
+        <v>1.586514915052748</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.384473964143664</v>
@@ -11322,7 +11286,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581581564338613</v>
+        <v>1.593080167586388</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.386037849751361</v>
@@ -11411,7 +11375,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584131287924035</v>
+        <v>1.598323273833194</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.303627701510559</v>
@@ -11500,7 +11464,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584227837365411</v>
+        <v>1.598386511219069</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.308545701311398</v>
@@ -11589,7 +11553,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58390738533626</v>
+        <v>1.602043783371068</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.35890588928434</v>
@@ -11678,7 +11642,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.58119922324573</v>
+        <v>1.60037791808797</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.428989186749535</v>
@@ -11767,7 +11731,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60121006933187</v>
+        <v>1.616567955502845</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.44772960602959</v>
@@ -11856,7 +11820,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.628210182512603</v>
+        <v>1.638088502493692</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.022370032158213</v>
@@ -11945,7 +11909,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.627916255730372</v>
+        <v>1.636164131105474</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.032934231550843</v>
@@ -12034,7 +11998,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.628134331460732</v>
+        <v>1.634356650422962</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.878385598255806</v>
@@ -12123,7 +12087,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.644365219639653</v>
+        <v>1.644976371866881</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.200345711854294</v>
@@ -12212,7 +12176,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.655100800393589</v>
+        <v>1.649137479540384</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.620500941365433</v>
@@ -12301,7 +12265,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.679642798844147</v>
+        <v>1.672273557616504</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.896105681704412</v>
@@ -12390,7 +12354,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.695193257404657</v>
+        <v>1.693133389211626</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.227049642164363</v>
@@ -12479,7 +12443,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.690281548852603</v>
+        <v>1.686488047966991</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.2868019344585</v>
@@ -12568,7 +12532,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.708136709367858</v>
+        <v>1.701750892371935</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.870079506193496</v>
@@ -12657,7 +12621,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695652855517399</v>
+        <v>1.693621831352604</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.267611589526309</v>
@@ -12746,7 +12710,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.688386856360247</v>
+        <v>1.686915865750865</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.128075207827166</v>
@@ -12835,7 +12799,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691749423233092</v>
+        <v>1.689414069520595</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.057557691979553</v>
@@ -12924,7 +12888,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.694932985112428</v>
+        <v>1.684263110461133</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.020919999840638</v>
@@ -13013,7 +12977,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702682434950159</v>
+        <v>1.689361785913328</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.910645019189388</v>
@@ -13102,7 +13066,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.709666015548412</v>
+        <v>1.692435802887585</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.923794149330537</v>
@@ -13191,7 +13155,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.702268652877569</v>
+        <v>1.692054314152201</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.88439001373403</v>
@@ -13280,7 +13244,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693894357152102</v>
+        <v>1.687914779291899</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.22503272192569</v>
@@ -13369,7 +13333,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.68173788797044</v>
+        <v>1.675961760285772</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.76347739252897</v>
@@ -13458,7 +13422,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.662093130537494</v>
+        <v>1.661147971179965</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.175758243627797</v>
@@ -13547,7 +13511,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.664709221664254</v>
+        <v>1.663397211131578</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.072959907309794</v>
@@ -13636,7 +13600,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.654842440533649</v>
+        <v>1.656903893215984</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.086128066778612</v>
@@ -13725,7 +13689,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.623435932355224</v>
+        <v>1.624322081088433</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.446482066011144</v>
@@ -13814,7 +13778,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618187387631683</v>
+        <v>1.62383050023611</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.718561656901139</v>
@@ -13903,7 +13867,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.612788134677325</v>
+        <v>1.620687704334522</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.543188808611821</v>
@@ -13992,7 +13956,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621151506449809</v>
+        <v>1.630149641325966</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.719216459161541</v>
@@ -14081,7 +14045,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626681036647506</v>
+        <v>1.636818981243698</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.841125395234731</v>
@@ -14170,7 +14134,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.617638402982472</v>
+        <v>1.630521510262172</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.881889853670647</v>
@@ -14259,7 +14223,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.60113281327669</v>
+        <v>1.615409499722513</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.783317950910078</v>
@@ -14348,7 +14312,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603755710569043</v>
+        <v>1.618558125240765</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.792403649798705</v>
@@ -14437,7 +14401,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597597316878847</v>
+        <v>1.616428066492296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.787054065541189</v>
@@ -14526,7 +14490,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.601598055888937</v>
+        <v>1.615758461769682</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.786257370453715</v>
@@ -14615,7 +14579,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609483679506256</v>
+        <v>1.623525896818219</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.779971039602946</v>
@@ -14704,7 +14668,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.633391567278151</v>
+        <v>1.645059957170399</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.823799083749382</v>
@@ -14793,7 +14757,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634010010107747</v>
+        <v>1.649072524660189</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.679689356051365</v>
@@ -14882,7 +14846,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.643780634675181</v>
+        <v>1.660413952768425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.750094323197476</v>
@@ -14971,7 +14935,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.646471095617914</v>
+        <v>1.657684968158784</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.590381783604764</v>
@@ -15060,7 +15024,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.670189167822451</v>
+        <v>1.67216707739824</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.762839236138658</v>
@@ -15149,7 +15113,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.672989454048103</v>
+        <v>1.667842057275439</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.817691174866781</v>
@@ -15238,7 +15202,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.671664494535589</v>
+        <v>1.66203499526437</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.427959863142898</v>
@@ -15524,7 +15488,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.518950405814373</v>
+        <v>1.543910702437497</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.24674701217384</v>
@@ -15613,7 +15577,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.507758716399711</v>
+        <v>1.538346989576052</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.2304680986836</v>
@@ -15702,7 +15666,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.504734307310033</v>
+        <v>1.542252773658521</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.30453694626278</v>
@@ -15791,7 +15755,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.499272365217975</v>
+        <v>1.53866767107809</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.23621494383437</v>
@@ -15880,7 +15844,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.503143432964255</v>
+        <v>1.540512900366352</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.247564770243286</v>
@@ -15969,7 +15933,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503075641035973</v>
+        <v>1.540130094660498</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.297034564260801</v>
@@ -16058,7 +16022,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499599218654139</v>
+        <v>1.536743256848953</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.290980982168568</v>
@@ -16147,7 +16111,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499329204097009</v>
+        <v>1.536221286209644</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.311725563208783</v>
@@ -16236,7 +16200,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.495121305411743</v>
+        <v>1.535808274477229</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.294641489685883</v>
@@ -16325,7 +16289,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.524840711563342</v>
+        <v>1.565482216778181</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.011988380952592</v>
@@ -16414,7 +16378,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553170320730287</v>
+        <v>1.589611495229292</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.650414725738741</v>
@@ -16503,7 +16467,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551755117528484</v>
+        <v>1.583594174248032</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.74666771397867</v>
@@ -16592,7 +16556,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.543202081165264</v>
+        <v>1.565988476350051</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.693976583173256</v>
@@ -16681,7 +16645,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.5728818876083</v>
+        <v>1.591237284875672</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.789114581541099</v>
@@ -16770,7 +16734,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.595737344864715</v>
+        <v>1.610187687215441</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.570693254778183</v>
@@ -16859,7 +16823,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.604550195866025</v>
+        <v>1.61002359000374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.069736935494409</v>
@@ -16948,7 +16912,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.630792366183758</v>
+        <v>1.630149939293988</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.898171999782175</v>
@@ -17037,7 +17001,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.640577892905732</v>
+        <v>1.637270159397744</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.150098846854664</v>
@@ -17126,7 +17090,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.639693928421365</v>
+        <v>1.628685024940816</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.233800981380223</v>
@@ -17215,7 +17179,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.633015172350185</v>
+        <v>1.627055095263383</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.419462700928098</v>
@@ -17304,7 +17268,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.633645907663569</v>
+        <v>1.630876238769242</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.276914034107944</v>
@@ -17393,7 +17357,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646861195603924</v>
+        <v>1.643214730091303</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.187830553223709</v>
@@ -17482,7 +17446,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.648279280844814</v>
+        <v>1.643400760871874</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.358736482532859</v>
@@ -17571,7 +17535,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.661615183371882</v>
+        <v>1.652141071949659</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.211449263913509</v>
@@ -17660,7 +17624,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.666372940820343</v>
+        <v>1.652825474580447</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.997955252890316</v>
@@ -17749,7 +17713,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.673526093514719</v>
+        <v>1.659675772681392</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.153894369051011</v>
@@ -17838,7 +17802,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.676266207069341</v>
+        <v>1.667323794380842</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.284207031842066</v>
@@ -17927,7 +17891,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674877547617216</v>
+        <v>1.666424113720169</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.811325444679828</v>
@@ -18016,7 +17980,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.655118494220491</v>
+        <v>1.644537528995745</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.142904431501361</v>
@@ -18105,7 +18069,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.645875761896975</v>
+        <v>1.640833114889958</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.161420271635139</v>
@@ -18194,7 +18158,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.645181729123026</v>
+        <v>1.634261124057498</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.039682621534372</v>
@@ -18283,7 +18247,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.627888546891344</v>
+        <v>1.614237487881594</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.992149298914423</v>
@@ -18372,7 +18336,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.614467900332067</v>
+        <v>1.602074539563423</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.873585234029946</v>
@@ -18461,7 +18425,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606765820815666</v>
+        <v>1.601368974110906</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.162575165393008</v>
@@ -18550,7 +18514,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.591949483342132</v>
+        <v>1.590860257999653</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.045892675365176</v>
@@ -18639,7 +18603,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582824211395861</v>
+        <v>1.583498663612144</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.128459338398858</v>
@@ -18728,7 +18692,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.579351931677356</v>
+        <v>1.579076382471336</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.04751767057269</v>
@@ -18817,7 +18781,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.565065803826244</v>
+        <v>1.571431013581331</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.605086153433742</v>
@@ -18906,7 +18870,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.559585894573402</v>
+        <v>1.563677605737368</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.752136187978441</v>
@@ -18995,7 +18959,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542138546790103</v>
+        <v>1.546621289901622</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.722668887616649</v>
@@ -19084,7 +19048,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.534606116140933</v>
+        <v>1.539245323059352</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.769325572097963</v>
@@ -19173,7 +19137,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.527686606127724</v>
+        <v>1.531858040629815</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.731735370451385</v>
@@ -19262,7 +19226,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.542426493734382</v>
+        <v>1.54512444778679</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.890558700431166</v>
@@ -19351,7 +19315,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537734240375812</v>
+        <v>1.545648058267298</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.767853106702126</v>
@@ -19440,7 +19404,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.554495101388556</v>
+        <v>1.55698149241191</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.745883019318406</v>
@@ -19529,7 +19493,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.561003230740184</v>
+        <v>1.567787593292722</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.856568446515589</v>
@@ -19618,7 +19582,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.559595674743595</v>
+        <v>1.564807889753822</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.903428312850091</v>
@@ -19707,7 +19671,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.572700227718901</v>
+        <v>1.570323416565416</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.583746850268366</v>
@@ -19796,7 +19760,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.579386301907349</v>
+        <v>1.575196652476235</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.480125303932706</v>
@@ -20082,7 +20046,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.379880520547204</v>
+        <v>1.394958343075537</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.732373164522959</v>
@@ -20171,7 +20135,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.383393143723794</v>
+        <v>1.395321736138811</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.752330673757106</v>
@@ -20260,7 +20224,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.395187675954437</v>
+        <v>1.41056145816172</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.737401146530549</v>
@@ -20349,7 +20313,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.386178220893599</v>
+        <v>1.405993332722647</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.789990814895188</v>
@@ -20438,7 +20402,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.382683829557526</v>
+        <v>1.400613826051759</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.781305405021744</v>
@@ -20527,7 +20491,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.38199614151007</v>
+        <v>1.399032913504005</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.767834152050851</v>
@@ -20616,7 +20580,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.381056358986025</v>
+        <v>1.398866457539405</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.781093652137248</v>
@@ -20705,7 +20669,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.381799764708442</v>
+        <v>1.401052244050634</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.791180793905983</v>
@@ -20794,7 +20758,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.385812195745381</v>
+        <v>1.405859636705208</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.74998519030592</v>
@@ -20883,7 +20847,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465865512179791</v>
+        <v>1.489238868737427</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.788552303740268</v>
@@ -20972,7 +20936,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531205957829517</v>
+        <v>1.549134171687789</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.671629916283962</v>
@@ -21061,7 +21025,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.572442120577358</v>
+        <v>1.588097179911742</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.378029575363722</v>
@@ -21150,7 +21114,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.581447662170509</v>
+        <v>1.593591550106607</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.572623794503538</v>
@@ -21239,7 +21203,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.59529303035824</v>
+        <v>1.609211366588836</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.758925950873945</v>
@@ -21328,7 +21292,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600752688964257</v>
+        <v>1.617538551139506</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.644383284648931</v>
@@ -21417,7 +21381,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.590123951253129</v>
+        <v>1.606603513063827</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.541919530537936</v>
@@ -21506,7 +21470,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583208431340978</v>
+        <v>1.601372870794684</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.743247812021008</v>
@@ -21595,7 +21559,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.573686234206589</v>
+        <v>1.588972624916663</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.604690910737383</v>
@@ -21684,7 +21648,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590839105131897</v>
+        <v>1.604108251367171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.7192876983827</v>
@@ -21773,7 +21737,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592611178646647</v>
+        <v>1.607178983813144</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.087890320138517</v>
@@ -21862,7 +21826,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.587004930307076</v>
+        <v>1.598485441403354</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.060848560942826</v>
@@ -21951,7 +21915,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.587992132211115</v>
+        <v>1.59984881167658</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.741398973928744</v>
@@ -22040,7 +22004,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.586875860523808</v>
+        <v>1.595093422049707</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.997887654485204</v>
@@ -22129,7 +22093,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.591413434466867</v>
+        <v>1.599096670933942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.031726277655195</v>
@@ -22218,7 +22182,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.601563438520212</v>
+        <v>1.599963778707681</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.666451190454242</v>
@@ -22307,7 +22271,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57076342251971</v>
+        <v>1.576770299921586</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.561307470887974</v>
@@ -22396,7 +22360,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557521982504384</v>
+        <v>1.566529463012924</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.460018394814409</v>
@@ -22485,7 +22449,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.530421556547218</v>
+        <v>1.541245131053638</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.337321312770488</v>
@@ -22574,7 +22538,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.525574933293146</v>
+        <v>1.536523231835968</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.419981565267389</v>
@@ -22663,7 +22627,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.51565884765273</v>
+        <v>1.524985059292521</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.461653694125782</v>
@@ -22752,7 +22716,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.519401933024172</v>
+        <v>1.529963870780987</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.552716772605308</v>
@@ -22841,7 +22805,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532078699625224</v>
+        <v>1.537445535707578</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.404620655649567</v>
@@ -22930,7 +22894,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.509002218929385</v>
+        <v>1.51175610063309</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.425780760832749</v>
@@ -23019,7 +22983,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.503587582527795</v>
+        <v>1.514149744786593</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.507979422524199</v>
@@ -23108,7 +23072,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.513391849752635</v>
+        <v>1.521921413831014</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.476973389348858</v>
@@ -23197,7 +23161,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.51886110324499</v>
+        <v>1.531647183234007</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.483424047734175</v>
@@ -23286,7 +23250,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5233687436501</v>
+        <v>1.532780765512765</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.386949385273263</v>
@@ -23375,7 +23339,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.505915432331531</v>
+        <v>1.517286740486842</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.508776316442934</v>
@@ -23464,7 +23428,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.498635142916031</v>
+        <v>1.508363916382893</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.384600187884859</v>
@@ -23553,7 +23517,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.5073471243468</v>
+        <v>1.516965319356055</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.212214471793443</v>
@@ -23642,7 +23606,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.510960989451065</v>
+        <v>1.519090136100678</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.666708562835623</v>
@@ -23731,7 +23695,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.52058668922946</v>
+        <v>1.525929174375515</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.585423696030419</v>
@@ -23820,7 +23784,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.545639268170468</v>
+        <v>1.550777330832688</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.609986228179861</v>
@@ -23909,7 +23873,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.551014584597328</v>
+        <v>1.554453765079737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.566666759495138</v>
@@ -23998,7 +23962,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569856808254691</v>
+        <v>1.577334231647643</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.651859891901093</v>
@@ -24087,7 +24051,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562888471269901</v>
+        <v>1.565780927933199</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.642451546927008</v>
@@ -24176,7 +24140,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.561284191721194</v>
+        <v>1.564922352031229</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.470421136278281</v>
@@ -24265,7 +24229,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.615444443608717</v>
+        <v>1.602108448648267</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.63738959329216</v>
@@ -24354,7 +24318,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.621790563343141</v>
+        <v>1.603474730339793</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.854032677044862</v>
@@ -24640,7 +24604,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.269194942518114</v>
+        <v>1.286607099347371</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.39114479331643</v>
@@ -24729,7 +24693,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.257714371852574</v>
+        <v>1.271907134616552</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.245647253099119</v>
@@ -24818,7 +24782,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.255188184046169</v>
+        <v>1.270548385255402</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.433534226359195</v>
@@ -24907,7 +24871,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.249496579521648</v>
+        <v>1.264487346592477</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.341138639149075</v>
@@ -24996,7 +24960,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.244665875169604</v>
+        <v>1.259321613979735</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.403249368083285</v>
@@ -25085,7 +25049,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.239725466046005</v>
+        <v>1.256061978538905</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.445850297156259</v>
@@ -25174,7 +25138,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.230986570887304</v>
+        <v>1.245757400357355</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.43907360211484</v>
@@ -25263,7 +25227,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.216817626387545</v>
+        <v>1.228350703765989</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.402254735800108</v>
@@ -25352,7 +25316,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.206867520233317</v>
+        <v>1.219638386344484</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.256093520206364</v>
@@ -25441,7 +25405,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.187874371221152</v>
+        <v>1.197517408039182</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.004119757304785</v>
@@ -25530,7 +25494,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.181734233599653</v>
+        <v>1.192966987207375</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.937138776331842</v>
@@ -25619,7 +25583,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.196253728860427</v>
+        <v>1.208010313595816</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.957104902993919</v>
@@ -25708,7 +25672,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.194582224180327</v>
+        <v>1.203848871058009</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.998730857815949</v>
@@ -25797,7 +25761,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.21022892269161</v>
+        <v>1.220275792492455</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.992055247742896</v>
@@ -25886,7 +25850,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.220487120298807</v>
+        <v>1.231764257095576</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.924763076609718</v>
@@ -25975,7 +25939,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.242417995307386</v>
+        <v>1.252794339897448</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.946492150572249</v>
@@ -26064,7 +26028,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.252647500639361</v>
+        <v>1.263488362195763</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.902581591808556</v>
@@ -26153,7 +26117,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.248052103483015</v>
+        <v>1.259187388800971</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.014378709025123</v>
@@ -26242,7 +26206,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.249660388879291</v>
+        <v>1.261443343270912</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.963589068218035</v>
@@ -26331,7 +26295,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.248999883089258</v>
+        <v>1.25590605231219</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.932074379586314</v>
@@ -26420,7 +26384,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.238720077510585</v>
+        <v>1.250036484829998</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.984475791536207</v>
@@ -26509,7 +26473,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.2407199450464</v>
+        <v>1.250920864244756</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.989630890355044</v>
@@ -26598,7 +26562,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.255858786035709</v>
+        <v>1.267372414267966</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.999466959648942</v>
@@ -26687,7 +26651,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.273813909518001</v>
+        <v>1.286056086290636</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.851262966759872</v>
@@ -26776,7 +26740,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.335601416890442</v>
+        <v>1.345320952413493</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.103708244757707</v>
@@ -26865,7 +26829,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.356405181224686</v>
+        <v>1.367592286438019</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.432492776556022</v>
@@ -26954,7 +26918,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.351097909869277</v>
+        <v>1.361322246192314</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.339122223102693</v>
@@ -27043,7 +27007,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.341571515549253</v>
+        <v>1.354453972564889</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.411224954352909</v>
@@ -27132,7 +27096,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.3372654423035</v>
+        <v>1.346472553166463</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.396084956032098</v>
@@ -27221,7 +27185,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.333698080660255</v>
+        <v>1.3464701587299</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.3479241192696</v>
@@ -27310,7 +27274,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.322924131977868</v>
+        <v>1.342631413140967</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.547591034951303</v>
@@ -27399,7 +27363,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.310634309324655</v>
+        <v>1.33287784529636</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.516490922085349</v>
@@ -27488,7 +27452,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.306573831352637</v>
+        <v>1.324299738218549</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.569067584069777</v>
@@ -27577,7 +27541,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.292979409311835</v>
+        <v>1.305391387824738</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.622579941348889</v>
@@ -27666,7 +27630,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.292617639486061</v>
+        <v>1.313977592992848</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.402277514808339</v>
@@ -27755,7 +27719,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.303879870434488</v>
+        <v>1.323049064314356</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.497721837296395</v>
@@ -27844,7 +27808,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.290095971996758</v>
+        <v>1.295715269696235</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.838058019899441</v>
@@ -27933,7 +27897,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.28045890545511</v>
+        <v>1.293575415071633</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.820549852112969</v>
@@ -28022,7 +27986,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.282090083441092</v>
+        <v>1.292476924711472</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.857159610525195</v>
@@ -28111,7 +28075,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.268761583764986</v>
+        <v>1.278342246850571</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.81859861615646</v>
@@ -28200,7 +28164,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.254849816917003</v>
+        <v>1.260832351073401</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.844967906077155</v>
@@ -28289,7 +28253,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.244519343934703</v>
+        <v>1.250632670011518</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.824968680266867</v>
@@ -28378,7 +28342,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.25587588526981</v>
+        <v>1.2623914071063</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.814495888128278</v>
@@ -28467,7 +28431,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.252379122071095</v>
+        <v>1.25700158482611</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.86333621824606</v>
@@ -28556,7 +28520,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.255410028245711</v>
+        <v>1.261511764506307</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.880644986379741</v>
@@ -28645,7 +28609,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.263901610422702</v>
+        <v>1.27369264169446</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.781648252445418</v>
@@ -28734,7 +28698,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.269848205123494</v>
+        <v>1.276336585566376</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.850269949461582</v>
@@ -28823,7 +28787,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.255195412181558</v>
+        <v>1.263057400232736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.752669417396747</v>
@@ -28912,7 +28876,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.252118676511015</v>
+        <v>1.259929469587584</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.764018139089318</v>
